--- a/docs/StructureDefinition-DiagnosticReportNoteElectronMicroscopyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteElectronMicroscopyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiagnosticReportNoteElectronMicroscopyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteElectronMicroscopyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiagnosticReportNoteElectronMicroscopyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteElectronMicroscopyDiagnosticReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiagnosticReportNoteElectronMicroscopyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteElectronMicroscopyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiagnosticReportNoteElectronMicroscopyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteElectronMicroscopyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -754,7 +754,8 @@
     <t>1689: reference based on EM - ORDERED TEST &gt; ORDERED TEST - CPRS ORDER # (63.02-.35 &gt; 63.52-3)</t>
   </si>
   <si>
-    <t>Pathology.EMOrderedTest.CPRSOrderIEN,Pathology.EMOrderedTest.CPRSOrderSID</t>
+    <t>Pathology.EMOrderedTest.CPRSOrderIEN
+Pathology.EMOrderedTest.CPRSOrderSID</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -791,7 +792,8 @@
     <t>1414: terminologyMaps using VF_DiagnosticReportLabStatus on EM - ORDERED TEST &gt; ORDERED TEST - DISPOSITION (63.02-.35 &gt; 63.52-10)</t>
   </si>
   <si>
-    <t>Pathology.EMOrderedTest.DispositionLabCodeIEN,Pathology.EMOrderedTest.DispositionLabCodeSID</t>
+    <t>Pathology.EMOrderedTest.DispositionLabCodeIEN
+Pathology.EMOrderedTest.DispositionLabCodeSID</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1125,7 +1127,25 @@
     <t>2213: reference based on PATIENT - LABORATORY REFERENCE &gt; LAB DATA - LRDFN (2-63 &gt; 63-.01)</t>
   </si>
   <si>
-    <t>Micro.AntibioticSensitivity.LRDFN,Micro.AntibioticSensitivityComment.LRDFN,Micro.BacteriologyReports.LRDFN,Micro.MicroAntibioticLevel.LRDFN,Micro.MicroAudit.LRDFN,Micro.Microbiology.LRDFN,Micro.MicroOrderedTest.LRDFN,Micro.MicroSterilityResults.LRDFN,Micro.MycobacteriologyReports.LRDFN,Micro.Mycology.LRDFN,Micro.MycologyReports.LRDFN,Micro.Parasitology.LRDFN,Micro.ParasitologyReports.LRDFN,Micro.ParasitologyStage.LRDFN,Micro.Virology.LRDFN,Micro.VirologyReports.LRDFN,Pathology.Autopsy.LRDFN,Pathology.CytoOrganTissueFunction.StaffIEN,SStaff.SMicroOrderedTest.LRDFN</t>
+    <t>Micro.AntibioticSensitivity.LRDFN
+Micro.AntibioticSensitivityComment.LRDFN
+Micro.BacteriologyReports.LRDFN
+Micro.MicroAntibioticLevel.LRDFN
+Micro.MicroAudit.LRDFN
+Micro.Microbiology.LRDFN
+Micro.MicroOrderedTest.LRDFN
+Micro.MicroSterilityResults.LRDFN
+Micro.MycobacteriologyReports.LRDFN
+Micro.Mycology.LRDFN
+Micro.MycologyReports.LRDFN
+Micro.Parasitology.LRDFN
+Micro.ParasitologyReports.LRDFN
+Micro.ParasitologyStage.LRDFN
+Micro.Virology.LRDFN
+Micro.VirologyReports.LRDFN
+Pathology.Autopsy.LRDFN
+Pathology.CytoOrganTissueFunction.StaffIEN
+SStaff.SMicroOrderedTest.LRDFN</t>
   </si>
   <si>
     <t>Patient.Extension[PatientExtension].VeteranLrdfn</t>
@@ -1236,7 +1256,27 @@
     <t>1422: source value based on EM - DATE/TIME SPECIMEN TAKEN (63.02-.01)</t>
   </si>
   <si>
-    <t>Pathology.ElectronMicroscopy.SpecimenTakenDateTime,Pathology.EMComment.SpecimenTakenDateTime,Pathology.EMDelayedComment.SpecimenTakenDateTime,Pathology.EMDiagnosis.SpecimenTakenDateTime,Pathology.EMGrossDescription.SpecimenTakenDateTime,Pathology.EMMicroscopicExam.SpecimenTakenDateTime,Pathology.EMOperativeFinding.SpecimenTakenDateTime,Pathology.EMOrderedTest.SpecimenTakenDateTime,Pathology.EMOrganTissueDisease.SpecimenTakenDateTime,Pathology.EMOrganTissueEtiology.SpecimenTakenDateTime,Pathology.EMOrganTissueFunction.SpecimenTakenDateTime,Pathology.EMOrganTissueMorphology.SpecimenTakenDateTime,Pathology.EMOrganTissueProcedure.SpecimenTakenDateTime,Pathology.EMPostOpDiagnosis.SpecimenTakenDateTime,Pathology.EMPreOpDiagnosis.SpecimenTakenDateTime,Pathology.EMSpecimen.SpecimenTakenDateTime,Pathology.EMSpecimenEPON.SpecimenTakenDateTime,Pathology.EMSpecimenEPONProcedure.SpecimenTakenDateTime,Pathology.EMSupplement.SpecimenTakenDateTime,Pathology.EMSupplementDescript.SpecimenTakenDateTime,Pathology.EMTIUReference.SpecimenTakenDateTime</t>
+    <t>Pathology.ElectronMicroscopy.SpecimenTakenDateTime
+Pathology.EMComment.SpecimenTakenDateTime
+Pathology.EMDelayedComment.SpecimenTakenDateTime
+Pathology.EMDiagnosis.SpecimenTakenDateTime
+Pathology.EMGrossDescription.SpecimenTakenDateTime
+Pathology.EMMicroscopicExam.SpecimenTakenDateTime
+Pathology.EMOperativeFinding.SpecimenTakenDateTime
+Pathology.EMOrderedTest.SpecimenTakenDateTime
+Pathology.EMOrganTissueDisease.SpecimenTakenDateTime
+Pathology.EMOrganTissueEtiology.SpecimenTakenDateTime
+Pathology.EMOrganTissueFunction.SpecimenTakenDateTime
+Pathology.EMOrganTissueMorphology.SpecimenTakenDateTime
+Pathology.EMOrganTissueProcedure.SpecimenTakenDateTime
+Pathology.EMPostOpDiagnosis.SpecimenTakenDateTime
+Pathology.EMPreOpDiagnosis.SpecimenTakenDateTime
+Pathology.EMSpecimen.SpecimenTakenDateTime
+Pathology.EMSpecimenEPON.SpecimenTakenDateTime
+Pathology.EMSpecimenEPONProcedure.SpecimenTakenDateTime
+Pathology.EMSupplement.SpecimenTakenDateTime
+Pathology.EMSupplementDescript.SpecimenTakenDateTime
+Pathology.EMTIUReference.SpecimenTakenDateTime</t>
   </si>
   <si>
     <t>DiagnosticReport.issued</t>
@@ -1329,7 +1369,8 @@
     <t>1432: reference based on EM - RELEASED BY (63.02-.13)</t>
   </si>
   <si>
-    <t>Pathology.ElectronMicroscopy.ReleasedByStaffIEN,Pathology.ElectronMicroscopy.ReleasedByStaffSID</t>
+    <t>Pathology.ElectronMicroscopy.ReleasedByStaffIEN
+Pathology.ElectronMicroscopy.ReleasedByStaffSID</t>
   </si>
   <si>
     <t>DiagnosticReport.performer:va-at</t>
@@ -1345,7 +1386,8 @@
     <t>1685: reference based on EM - RELEASING SITE (63.02-.345)</t>
   </si>
   <si>
-    <t>Pathology.ElectronMicroscopy.ReleasingInstitutionIEN,Pathology.ElectronMicroscopy.ReleasingInstitutionSID</t>
+    <t>Pathology.ElectronMicroscopy.ReleasingInstitutionIEN
+Pathology.ElectronMicroscopy.ReleasingInstitutionSID</t>
   </si>
   <si>
     <t>DiagnosticReport.resultsInterpreter</t>
@@ -1367,7 +1409,8 @@
     <t>1696: reference based on EM - PATHOLOGIST (63.02-.02)</t>
   </si>
   <si>
-    <t>Pathology.ElectronMicroscopy.PathologistStaffIEN,Pathology.ElectronMicroscopy.PathologistStaffSID</t>
+    <t>Pathology.ElectronMicroscopy.PathologistStaffIEN
+Pathology.ElectronMicroscopy.PathologistStaffSID</t>
   </si>
   <si>
     <t>OBR-32, PRT-8 (where this PRT-4-Participation = "PI")</t>
@@ -2160,7 +2203,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="52.3671875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="44.26953125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-DiagnosticReportNoteElectronMicroscopyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteElectronMicroscopyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiagnosticReportNoteElectronMicroscopyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteElectronMicroscopyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
